--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template Revue Accès" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Code/identifiant utilisateur</t>
-  </si>
-  <si>
-    <t>Nom et Prénom utilisateur</t>
-  </si>
-  <si>
-    <t>Profil utilisateur</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Recommandation</t>
-  </si>
-  <si>
-    <t>Commentaire revue</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,34 +408,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Code/identifiant utilisateur</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nom et Prénom utilisateur</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Profil utilisateur</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Recommandation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Commentaire revue</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Certificateur</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Décision</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Commentaire certificateur</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Exécution Reco/Décision</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Exécuté par</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Commentaire exécution</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="3">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"À conserver,À certifier,Déjà désactivé,A desactiver,À modifier,À supprimer"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82 H83 H84 H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"À conserver,A desactiver,À modifier,À supprimer,N/A"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69 J70 J71 J72 J73 J74 J75 J76 J77 J78 J79 J80 J81 J82 J83 J84 J85 J86 J87 J88 J89 J90 J91 J92 J93 J94 J95 J96 J97 J98 J99 J100 J101" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Conservé,Supprimé,Désactivé,Modifié"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>